--- a/data/trans_dic/P04B1_1_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_1_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6377501546883492</v>
+        <v>0.6416713726545438</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6955273242046666</v>
+        <v>0.6945107918147186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6783649271587932</v>
+        <v>0.6769861619241663</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.722717539145886</v>
+        <v>0.7294015490338677</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7665862288389801</v>
+        <v>0.7654129883636248</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7336469982294752</v>
+        <v>0.7330408483180583</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.705435315593158</v>
+        <v>0.7054353155931579</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.6689787699116962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6883824930405777</v>
+        <v>0.6883824930405776</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.656300806080943</v>
+        <v>0.6631520344697241</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.624575720550573</v>
+        <v>0.6309804538614101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6603980104427924</v>
+        <v>0.6557208038538925</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7475863787811348</v>
+        <v>0.7463415094250814</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7069001596416626</v>
+        <v>0.7069227895266158</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7188715249999607</v>
+        <v>0.7156205121015501</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6716040208070874</v>
+        <v>0.6716040208070873</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.6781047607214747</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6265355557803078</v>
+        <v>0.6264461223492614</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6153413346308206</v>
+        <v>0.6180906657233231</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6384530329725934</v>
+        <v>0.6391622964878398</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.714486885429805</v>
+        <v>0.7128169426630796</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7333725118065754</v>
+        <v>0.7336333231454587</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7067809866456258</v>
+        <v>0.7073622551412921</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.6734882330539713</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7056305537634847</v>
+        <v>0.7056305537634846</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6873689180484227</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6431769309644233</v>
+        <v>0.6446459282039682</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6778678475494929</v>
+        <v>0.676643312859995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6656264476246893</v>
+        <v>0.6658795796092871</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7037732594146039</v>
+        <v>0.7034284925781624</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7320188169278458</v>
+        <v>0.731203010344079</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.708320590344377</v>
+        <v>0.7067533316248323</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6247819158511795</v>
+        <v>0.6247819158511793</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.5873762495385305</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.582433349570357</v>
+        <v>0.5823198608979524</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5593667185772641</v>
+        <v>0.5607769040042748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5775045690852807</v>
+        <v>0.5777348572727001</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6703487503755404</v>
+        <v>0.6718492977249794</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6171238677635057</v>
+        <v>0.6163706560978853</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.628120597271094</v>
+        <v>0.6278919829204708</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.6850124618970255</v>
+        <v>0.6850124618970256</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.603914558603855</v>
+        <v>0.6039145586038551</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.6216175841922026</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5845840873078535</v>
+        <v>0.5890895133124944</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5732680037307554</v>
+        <v>0.5719775855051251</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5864885028106173</v>
+        <v>0.5889555804559429</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.771915454768899</v>
+        <v>0.7641697737219014</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6376810378806603</v>
+        <v>0.6386653858930376</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6539539699199221</v>
+        <v>0.6566331772125386</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.6720948122902852</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6526783503053637</v>
+        <v>0.6526783503053638</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6621241929909691</v>
+        <v>0.6621241929909693</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.656589451607506</v>
+        <v>0.6542842079134255</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6398037092856984</v>
+        <v>0.6368788995443937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6509700771073044</v>
+        <v>0.6511518460685541</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6913378082158652</v>
+        <v>0.6903724477074012</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6678930621435473</v>
+        <v>0.6670675513936682</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6730352082954512</v>
+        <v>0.6740979419985157</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>350157</v>
+        <v>352310</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>336930</v>
+        <v>336438</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>701073</v>
+        <v>699648</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>396808</v>
+        <v>400478</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>371353</v>
+        <v>370784</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>758205</v>
+        <v>757579</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>315994</v>
+        <v>319292</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>264285</v>
+        <v>266995</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>597409</v>
+        <v>593178</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>359946</v>
+        <v>359346</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>299120</v>
+        <v>299129</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>650306</v>
+        <v>647365</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>295482</v>
+        <v>295440</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>114940</v>
+        <v>115453</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>420359</v>
+        <v>420826</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>336961</v>
+        <v>336173</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>136987</v>
+        <v>137035</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>465346</v>
+        <v>465729</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>727330</v>
+        <v>728991</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>582663</v>
+        <v>581610</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1324858</v>
+        <v>1325361</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>795855</v>
+        <v>795465</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>629208</v>
+        <v>628507</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1409836</v>
+        <v>1406716</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>330171</v>
+        <v>330107</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>463582</v>
+        <v>464751</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>805991</v>
+        <v>806312</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>380009</v>
+        <v>380859</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>511449</v>
+        <v>510825</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>876633</v>
+        <v>876314</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>137719</v>
+        <v>138781</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>483628</v>
+        <v>482540</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>632950</v>
+        <v>635612</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>181852</v>
+        <v>180027</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>537969</v>
+        <v>538800</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>705760</v>
+        <v>708651</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2255677</v>
+        <v>2247757</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2320124</v>
+        <v>2309518</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4596988</v>
+        <v>4598272</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2375053</v>
+        <v>2371737</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2421985</v>
+        <v>2418991</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4752806</v>
+        <v>4760311</v>
       </c>
     </row>
     <row r="32">
